--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H2">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>105.435976969803</v>
+        <v>319.1185514684614</v>
       </c>
       <c r="R2">
-        <v>948.9237927282269</v>
+        <v>2872.066963216152</v>
       </c>
       <c r="S2">
-        <v>0.0007964625411111079</v>
+        <v>0.001440760418633207</v>
       </c>
       <c r="T2">
-        <v>0.0007964625411111081</v>
+        <v>0.001440760418633207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H3">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I3">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J3">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>8622.443431961881</v>
+        <v>4976.18582656181</v>
       </c>
       <c r="R3">
-        <v>77601.99088765694</v>
+        <v>44785.67243905628</v>
       </c>
       <c r="S3">
-        <v>0.06513386989693273</v>
+        <v>0.02246654587043772</v>
       </c>
       <c r="T3">
-        <v>0.06513386989693275</v>
+        <v>0.02246654587043771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H4">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I4">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J4">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>8005.715727849568</v>
+        <v>5887.720195094776</v>
       </c>
       <c r="R4">
-        <v>72051.44155064612</v>
+        <v>52989.48175585298</v>
       </c>
       <c r="S4">
-        <v>0.06047511366867116</v>
+        <v>0.02658195261305045</v>
       </c>
       <c r="T4">
-        <v>0.06047511366867117</v>
+        <v>0.02658195261305045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H5">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I5">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J5">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>1386.645497379788</v>
+        <v>561.8671025634918</v>
       </c>
       <c r="R5">
-        <v>12479.8094764181</v>
+        <v>5056.803923071426</v>
       </c>
       <c r="S5">
-        <v>0.01047470918564815</v>
+        <v>0.002536724606515421</v>
       </c>
       <c r="T5">
-        <v>0.01047470918564815</v>
+        <v>0.002536724606515421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H6">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I6">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J6">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>3230.290624401139</v>
+        <v>1904.558064259265</v>
       </c>
       <c r="R6">
-        <v>29072.61561961025</v>
+        <v>17141.02257833338</v>
       </c>
       <c r="S6">
-        <v>0.02440158998075936</v>
+        <v>0.008598722516589958</v>
       </c>
       <c r="T6">
-        <v>0.02440158998075936</v>
+        <v>0.008598722516589956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H7">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I7">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J7">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>7577.857796692486</v>
+        <v>8422.256912275097</v>
       </c>
       <c r="R7">
-        <v>68200.72017023237</v>
+        <v>75800.31221047588</v>
       </c>
       <c r="S7">
-        <v>0.05724307822045305</v>
+        <v>0.03802491061371325</v>
       </c>
       <c r="T7">
-        <v>0.05724307822045306</v>
+        <v>0.03802491061371324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>137.557972</v>
       </c>
       <c r="I8">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J8">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>80.19863616152399</v>
+        <v>420.5948708490187</v>
       </c>
       <c r="R8">
-        <v>721.787725453716</v>
+        <v>3785.353837641168</v>
       </c>
       <c r="S8">
-        <v>0.0006058198670568258</v>
+        <v>0.001898906971753728</v>
       </c>
       <c r="T8">
-        <v>0.000605819867056826</v>
+        <v>0.001898906971753727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>137.557972</v>
       </c>
       <c r="I9">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J9">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>6558.560213477059</v>
@@ -1013,10 +1013,10 @@
         <v>59027.04192129353</v>
       </c>
       <c r="S9">
-        <v>0.04954331229037891</v>
+        <v>0.02961066949984005</v>
       </c>
       <c r="T9">
-        <v>0.04954331229037894</v>
+        <v>0.02961066949984004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>137.557972</v>
       </c>
       <c r="I10">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J10">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>6089.453536853754</v>
+        <v>7759.952856566489</v>
       </c>
       <c r="R10">
-        <v>54805.0818316838</v>
+        <v>69839.5757090984</v>
       </c>
       <c r="S10">
-        <v>0.04599968414319923</v>
+        <v>0.03503473199772792</v>
       </c>
       <c r="T10">
-        <v>0.04599968414319924</v>
+        <v>0.03503473199772792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>137.557972</v>
       </c>
       <c r="I11">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J11">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>1054.735593347108</v>
+        <v>740.5348900888316</v>
       </c>
       <c r="R11">
-        <v>9492.620340123969</v>
+        <v>6664.814010799484</v>
       </c>
       <c r="S11">
-        <v>0.007967464380001553</v>
+        <v>0.0033433761633326</v>
       </c>
       <c r="T11">
-        <v>0.007967464380001557</v>
+        <v>0.0033433761633326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>137.557972</v>
       </c>
       <c r="I12">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J12">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>2457.082581560615</v>
+        <v>2510.187356314666</v>
       </c>
       <c r="R12">
-        <v>22113.74323404554</v>
+        <v>22591.68620683199</v>
       </c>
       <c r="S12">
-        <v>0.01856078250396532</v>
+        <v>0.01133302520235691</v>
       </c>
       <c r="T12">
-        <v>0.01856078250396532</v>
+        <v>0.01133302520235691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>137.557972</v>
       </c>
       <c r="I13">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J13">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>5764.008432290284</v>
+        <v>11100.44540492875</v>
       </c>
       <c r="R13">
-        <v>51876.07589061256</v>
+        <v>99904.00864435872</v>
       </c>
       <c r="S13">
-        <v>0.04354127438191795</v>
+        <v>0.05011642944299591</v>
       </c>
       <c r="T13">
-        <v>0.04354127438191795</v>
+        <v>0.05011642944299591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H14">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I14">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J14">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>86.137714903158</v>
+        <v>301.645102505656</v>
       </c>
       <c r="R14">
-        <v>775.239434128422</v>
+        <v>2714.805922550904</v>
       </c>
       <c r="S14">
-        <v>0.0006506836211791547</v>
+        <v>0.001361871073194744</v>
       </c>
       <c r="T14">
-        <v>0.000650683621179155</v>
+        <v>0.001361871073194744</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H15">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I15">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J15">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>7044.251833732761</v>
+        <v>4703.713014593507</v>
       </c>
       <c r="R15">
-        <v>63398.26650359484</v>
+        <v>42333.41713134156</v>
       </c>
       <c r="S15">
-        <v>0.05321222297136988</v>
+        <v>0.02123638221861876</v>
       </c>
       <c r="T15">
-        <v>0.0532122229713699</v>
+        <v>0.02123638221861875</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H16">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I16">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J16">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>6540.405645017496</v>
+        <v>5565.33599692498</v>
       </c>
       <c r="R16">
-        <v>58863.65080515747</v>
+        <v>50088.02397232482</v>
       </c>
       <c r="S16">
-        <v>0.04940617282296335</v>
+        <v>0.02512644841193617</v>
       </c>
       <c r="T16">
-        <v>0.04940617282296336</v>
+        <v>0.02512644841193617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H17">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I17">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J17">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>1132.843626604384</v>
+        <v>531.1018709737114</v>
       </c>
       <c r="R17">
-        <v>10195.59263943946</v>
+        <v>4779.916838763402</v>
       </c>
       <c r="S17">
-        <v>0.008557491849155639</v>
+        <v>0.002397825354996913</v>
       </c>
       <c r="T17">
-        <v>0.008557491849155642</v>
+        <v>0.002397825354996913</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H18">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I18">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J18">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>2639.04087443227</v>
+        <v>1800.273314972846</v>
       </c>
       <c r="R18">
-        <v>23751.36786989043</v>
+        <v>16202.45983475561</v>
       </c>
       <c r="S18">
-        <v>0.01993529401779425</v>
+        <v>0.008127896429082446</v>
       </c>
       <c r="T18">
-        <v>0.01993529401779426</v>
+        <v>0.008127896429082446</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H19">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I19">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J19">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>6190.859830085474</v>
+        <v>7961.093261239855</v>
       </c>
       <c r="R19">
-        <v>55717.73847076926</v>
+        <v>71649.83935115869</v>
       </c>
       <c r="S19">
-        <v>0.0467657064850335</v>
+        <v>0.03594284320689368</v>
       </c>
       <c r="T19">
-        <v>0.0467657064850335</v>
+        <v>0.03594284320689368</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H20">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I20">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J20">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>22.298584152045</v>
+        <v>66.98541710352268</v>
       </c>
       <c r="R20">
-        <v>200.687257368405</v>
+        <v>602.8687539317041</v>
       </c>
       <c r="S20">
-        <v>0.0001684433293770695</v>
+        <v>0.0003024265970884162</v>
       </c>
       <c r="T20">
-        <v>0.0001684433293770696</v>
+        <v>0.000302426597088416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H21">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I21">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J21">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>1823.554786417122</v>
+        <v>1044.539346405951</v>
       </c>
       <c r="R21">
-        <v>16411.9930777541</v>
+        <v>9400.854117653562</v>
       </c>
       <c r="S21">
-        <v>0.01377511852013353</v>
+        <v>0.004715899276559071</v>
       </c>
       <c r="T21">
-        <v>0.01377511852013353</v>
+        <v>0.004715899276559069</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H22">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I22">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J22">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>1693.123457336873</v>
+        <v>1235.877360443068</v>
       </c>
       <c r="R22">
-        <v>15238.11111603186</v>
+        <v>11122.89624398762</v>
       </c>
       <c r="S22">
-        <v>0.01278984128568909</v>
+        <v>0.005579754530150645</v>
       </c>
       <c r="T22">
-        <v>0.0127898412856891</v>
+        <v>0.005579754530150644</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H23">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I23">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J23">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>293.2607275146044</v>
+        <v>117.9401888382002</v>
       </c>
       <c r="R23">
-        <v>2639.34654763144</v>
+        <v>1061.461699543802</v>
       </c>
       <c r="S23">
-        <v>0.002215289230081959</v>
+        <v>0.0005324778364099543</v>
       </c>
       <c r="T23">
-        <v>0.00221528923008196</v>
+        <v>0.0005324778364099541</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H24">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I24">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J24">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>683.1720006198694</v>
+        <v>399.7812591753794</v>
       </c>
       <c r="R24">
-        <v>6148.548005578825</v>
+        <v>3598.031332578415</v>
       </c>
       <c r="S24">
-        <v>0.005160675921706474</v>
+        <v>0.001804937418024586</v>
       </c>
       <c r="T24">
-        <v>0.005160675921706476</v>
+        <v>0.001804937418024585</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H25">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I25">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J25">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>1602.636070040614</v>
+        <v>1767.895942199811</v>
       </c>
       <c r="R25">
-        <v>14423.72463036552</v>
+        <v>15911.0634797983</v>
       </c>
       <c r="S25">
-        <v>0.0121063002734488</v>
+        <v>0.007981718662430947</v>
       </c>
       <c r="T25">
-        <v>0.0121063002734488</v>
+        <v>0.007981718662430946</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H26">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I26">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J26">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>56.725176556674</v>
+        <v>257.7504640884853</v>
       </c>
       <c r="R26">
-        <v>510.526589010066</v>
+        <v>2319.754176796368</v>
       </c>
       <c r="S26">
-        <v>0.0004285015377459279</v>
+        <v>0.001163695011882539</v>
       </c>
       <c r="T26">
-        <v>0.0004285015377459281</v>
+        <v>0.001163695011882539</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H27">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I27">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J27">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>4638.925346782281</v>
+        <v>4019.240499446836</v>
       </c>
       <c r="R27">
-        <v>41750.32812104053</v>
+        <v>36173.16449502152</v>
       </c>
       <c r="S27">
-        <v>0.03504240559919238</v>
+        <v>0.01814611716530955</v>
       </c>
       <c r="T27">
-        <v>0.03504240559919239</v>
+        <v>0.01814611716530955</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H28">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I28">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J28">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>4307.122209858889</v>
+        <v>4755.482267406844</v>
       </c>
       <c r="R28">
-        <v>38764.09988872999</v>
+        <v>42799.34040666159</v>
       </c>
       <c r="S28">
-        <v>0.03253596731144996</v>
+        <v>0.0214701106872786</v>
       </c>
       <c r="T28">
-        <v>0.03253596731144996</v>
+        <v>0.0214701106872786</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H29">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I29">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J29">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>746.0234439987521</v>
+        <v>453.8172593707872</v>
       </c>
       <c r="R29">
-        <v>6714.210995988768</v>
+        <v>4084.355334337084</v>
       </c>
       <c r="S29">
-        <v>0.005635455230863753</v>
+        <v>0.002048899826053045</v>
       </c>
       <c r="T29">
-        <v>0.005635455230863753</v>
+        <v>0.002048899826053045</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H30">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I30">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J30">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>1737.91538016481</v>
+        <v>1538.302059492799</v>
       </c>
       <c r="R30">
-        <v>15641.23842148329</v>
+        <v>13844.71853543519</v>
       </c>
       <c r="S30">
-        <v>0.01312819911858525</v>
+        <v>0.006945145335551608</v>
       </c>
       <c r="T30">
-        <v>0.01312819911858525</v>
+        <v>0.006945145335551608</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H31">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I31">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J31">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>4076.932123101217</v>
+        <v>6802.614946144569</v>
       </c>
       <c r="R31">
-        <v>36692.38910791095</v>
+        <v>61223.53451530112</v>
       </c>
       <c r="S31">
-        <v>0.03079711320579578</v>
+        <v>0.03071253085258628</v>
       </c>
       <c r="T31">
-        <v>0.03079711320579578</v>
+        <v>0.03071253085258628</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H32">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I32">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J32">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>131.693613269541</v>
+        <v>1836.311807194106</v>
       </c>
       <c r="R32">
-        <v>1185.242519425869</v>
+        <v>16526.80626474696</v>
       </c>
       <c r="S32">
-        <v>0.0009948125192864908</v>
+        <v>0.008290603463508003</v>
       </c>
       <c r="T32">
-        <v>0.0009948125192864911</v>
+        <v>0.008290603463508002</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H33">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I33">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J33">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>10769.7653438778</v>
+        <v>28634.58970360271</v>
       </c>
       <c r="R33">
-        <v>96927.88809490019</v>
+        <v>257711.3073324244</v>
       </c>
       <c r="S33">
-        <v>0.08135472273768495</v>
+        <v>0.1292798029412906</v>
       </c>
       <c r="T33">
-        <v>0.08135472273768496</v>
+        <v>0.1292798029412905</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H34">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I34">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J34">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>9999.448587755358</v>
+        <v>33879.85456174976</v>
       </c>
       <c r="R34">
-        <v>89995.03728979823</v>
+        <v>304918.6910557479</v>
       </c>
       <c r="S34">
-        <v>0.07553575601802853</v>
+        <v>0.1529611901815209</v>
       </c>
       <c r="T34">
-        <v>0.07553575601802853</v>
+        <v>0.1529611901815209</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H35">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I35">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J35">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>1731.973858659124</v>
+        <v>3233.165824310442</v>
       </c>
       <c r="R35">
-        <v>15587.76472793211</v>
+        <v>29098.49241879398</v>
       </c>
       <c r="S35">
-        <v>0.01308331691184247</v>
+        <v>0.01459713741212712</v>
       </c>
       <c r="T35">
-        <v>0.01308331691184247</v>
+        <v>0.01459713741212712</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H36">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I36">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J36">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>4034.757930492221</v>
+        <v>10959.44577584887</v>
       </c>
       <c r="R36">
-        <v>36312.82137442999</v>
+        <v>98635.01198263986</v>
       </c>
       <c r="S36">
-        <v>0.03047852968639338</v>
+        <v>0.04947984255801088</v>
       </c>
       <c r="T36">
-        <v>0.03047852968639338</v>
+        <v>0.04947984255801088</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H37">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I37">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J37">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>9465.037483126012</v>
+        <v>48464.40214793167</v>
       </c>
       <c r="R37">
-        <v>85185.33734813411</v>
+        <v>436179.619331385</v>
       </c>
       <c r="S37">
-        <v>0.07149881873510291</v>
+        <v>0.2188076876325475</v>
       </c>
       <c r="T37">
-        <v>0.07149881873510291</v>
+        <v>0.2188076876325475</v>
       </c>
     </row>
   </sheetData>
